--- a/artfynd/A 4079-2021.xlsx
+++ b/artfynd/A 4079-2021.xlsx
@@ -10540,10 +10540,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111221325</v>
+        <v>111221090</v>
       </c>
       <c r="B83" t="n">
-        <v>78483</v>
+        <v>78612</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10556,21 +10556,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6441</v>
+        <v>6464</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Slanklav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Collema flaccidum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10583,10 +10583,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>486338.8215332671</v>
+        <v>486375.1437176764</v>
       </c>
       <c r="R83" t="n">
-        <v>6565619.233598735</v>
+        <v>6565597.609077551</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -10631,6 +10631,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>Mkt riklig</t>
+        </is>
+      </c>
       <c r="AD83" t="b">
         <v>0</v>
       </c>
@@ -10643,7 +10648,7 @@
       </c>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr"/>
@@ -10661,10 +10666,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111221078</v>
+        <v>111221325</v>
       </c>
       <c r="B84" t="n">
-        <v>93155</v>
+        <v>78483</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10677,27 +10682,26 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2668</v>
+        <v>6441</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Slanklav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Homalia trichomanoides</t>
+          <t>Collema flaccidum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -10705,10 +10709,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>486354.5526359505</v>
+        <v>486338.8215332671</v>
       </c>
       <c r="R84" t="n">
-        <v>6565574.141331907</v>
+        <v>6565619.233598735</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10753,11 +10757,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>Kanten av gruvhål.</t>
-        </is>
-      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
@@ -10770,7 +10769,7 @@
       </c>
       <c r="AO84" t="inlineStr">
         <is>
-          <t>Lodyta, basisk</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT84" t="inlineStr"/>
@@ -10788,10 +10787,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111221011</v>
+        <v>111221175</v>
       </c>
       <c r="B85" t="n">
-        <v>89389</v>
+        <v>78536</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10804,21 +10803,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4660</v>
+        <v>229497</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10831,10 +10830,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>486409.6258092535</v>
+        <v>486335.3688675588</v>
       </c>
       <c r="R85" t="n">
-        <v>6565634.844851627</v>
+        <v>6565657.116621739</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10879,11 +10878,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>2 aspar</t>
-        </is>
-      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
@@ -10896,7 +10890,7 @@
       </c>
       <c r="AO85" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT85" t="inlineStr"/>
@@ -10914,10 +10908,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111221090</v>
+        <v>111221011</v>
       </c>
       <c r="B86" t="n">
-        <v>78612</v>
+        <v>89389</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10930,21 +10924,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6464</v>
+        <v>4660</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10957,10 +10951,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>486375.1437176764</v>
+        <v>486409.6258092535</v>
       </c>
       <c r="R86" t="n">
-        <v>6565597.609077551</v>
+        <v>6565634.844851627</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -11007,7 +11001,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>Mkt riklig</t>
+          <t>2 aspar</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -11022,7 +11016,7 @@
       </c>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr"/>
@@ -11040,10 +11034,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111221027</v>
+        <v>111220991</v>
       </c>
       <c r="B87" t="n">
-        <v>78512</v>
+        <v>90666</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -11056,21 +11050,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6456</v>
+        <v>4364</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -11083,10 +11077,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>486397.6095978282</v>
+        <v>486476.5555479655</v>
       </c>
       <c r="R87" t="n">
-        <v>6565571.940095092</v>
+        <v>6565714.441012196</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -11133,7 +11127,7 @@
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>2 aspar</t>
+          <t>1 mycel, minst 30 fruktkroppar.</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -11145,11 +11139,6 @@
       <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
@@ -11166,10 +11155,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111221044</v>
+        <v>111221027</v>
       </c>
       <c r="B88" t="n">
-        <v>78483</v>
+        <v>78512</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -11182,21 +11171,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6441</v>
+        <v>6456</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Slanklav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Collema flaccidum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -11209,10 +11198,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>486386.3692969962</v>
+        <v>486397.6095978282</v>
       </c>
       <c r="R88" t="n">
-        <v>6565582.727527454</v>
+        <v>6565571.940095092</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -11257,6 +11246,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>2 aspar</t>
+        </is>
+      </c>
       <c r="AD88" t="b">
         <v>0</v>
       </c>
@@ -11269,7 +11263,7 @@
       </c>
       <c r="AO88" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr"/>
@@ -11287,10 +11281,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111221033</v>
+        <v>111221044</v>
       </c>
       <c r="B89" t="n">
-        <v>78536</v>
+        <v>78483</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -11303,21 +11297,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>229497</v>
+        <v>6441</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Slanklav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Collema flaccidum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -11330,10 +11324,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>486397.6095978282</v>
+        <v>486386.3692969962</v>
       </c>
       <c r="R89" t="n">
-        <v>6565571.940095092</v>
+        <v>6565582.727527454</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -11378,11 +11372,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>2 aspar</t>
-        </is>
-      </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
@@ -11395,7 +11384,7 @@
       </c>
       <c r="AO89" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -11413,10 +11402,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111221175</v>
+        <v>111221078</v>
       </c>
       <c r="B90" t="n">
-        <v>78536</v>
+        <v>93155</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11429,26 +11418,27 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>229497</v>
+        <v>2668</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Homalia trichomanoides</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
@@ -11456,10 +11446,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>486335.3688675588</v>
+        <v>486354.5526359505</v>
       </c>
       <c r="R90" t="n">
-        <v>6565657.116621739</v>
+        <v>6565574.141331907</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11504,6 +11494,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Kanten av gruvhål.</t>
+        </is>
+      </c>
       <c r="AD90" t="b">
         <v>0</v>
       </c>
@@ -11516,7 +11511,7 @@
       </c>
       <c r="AO90" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>Lodyta, basisk</t>
         </is>
       </c>
       <c r="AT90" t="inlineStr"/>
@@ -11534,10 +11529,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111220991</v>
+        <v>111221033</v>
       </c>
       <c r="B91" t="n">
-        <v>90666</v>
+        <v>78536</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11550,21 +11545,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4364</v>
+        <v>229497</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11577,10 +11572,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>486476.5555479655</v>
+        <v>486397.6095978282</v>
       </c>
       <c r="R91" t="n">
-        <v>6565714.441012196</v>
+        <v>6565571.940095092</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11627,7 +11622,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>1 mycel, minst 30 fruktkroppar.</t>
+          <t>2 aspar</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11639,6 +11634,11 @@
       <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
+      </c>
+      <c r="AO91" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
       </c>
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
@@ -11885,10 +11885,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111393257</v>
+        <v>111393293</v>
       </c>
       <c r="B94" t="n">
-        <v>83147</v>
+        <v>89665</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11897,25 +11897,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>416</v>
+        <v>73</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Nordlig svampklubba</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Tolypocladium longisegmentum</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ginns) Quandt, Kepler &amp; Spatafora</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11925,10 +11925,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>486333.1823455377</v>
+        <v>486433.8759830765</v>
       </c>
       <c r="R94" t="n">
-        <v>6565762.034385192</v>
+        <v>6565678.258153108</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>i barrskog, på Elaphomyces sp. Sporer 24 - 28 x 2,6 µm</t>
+          <t>på granlåga</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -12002,10 +12002,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111393293</v>
+        <v>111393257</v>
       </c>
       <c r="B95" t="n">
-        <v>89665</v>
+        <v>83147</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -12014,25 +12014,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>73</v>
+        <v>416</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Nordlig svampklubba</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Tolypocladium longisegmentum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Ginns) Quandt, Kepler &amp; Spatafora</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -12042,10 +12042,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>486433.8759830765</v>
+        <v>486333.1823455377</v>
       </c>
       <c r="R95" t="n">
-        <v>6565678.258153108</v>
+        <v>6565762.034385192</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>på granlåga</t>
+          <t>i barrskog, på Elaphomyces sp. Sporer 24 - 28 x 2,6 µm</t>
         </is>
       </c>
       <c r="AD95" t="b">

--- a/artfynd/A 4079-2021.xlsx
+++ b/artfynd/A 4079-2021.xlsx
@@ -11768,10 +11768,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111393271</v>
+        <v>111393293</v>
       </c>
       <c r="B93" t="n">
-        <v>84766</v>
+        <v>89665</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11784,21 +11784,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2975</v>
+        <v>73</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bleknande kamskivling</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Amanita lividopallescens</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Boud.) Kühner &amp; Romagn.</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11808,10 +11808,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>486378.194073186</v>
+        <v>486433.8759830765</v>
       </c>
       <c r="R93" t="n">
-        <v>6565590.433362438</v>
+        <v>6565678.258153108</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>intill asp och lönn. Sporer 12 x 8 µm, maginalceller runda 25-30 µm</t>
+          <t>på granlåga</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11885,10 +11885,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111393293</v>
+        <v>111393271</v>
       </c>
       <c r="B94" t="n">
-        <v>89665</v>
+        <v>84766</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11901,21 +11901,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>73</v>
+        <v>2975</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Bleknande kamskivling</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Amanita lividopallescens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Boud.) Kühner &amp; Romagn.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11925,10 +11925,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>486433.8759830765</v>
+        <v>486378.194073186</v>
       </c>
       <c r="R94" t="n">
-        <v>6565678.258153108</v>
+        <v>6565590.433362438</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>på granlåga</t>
+          <t>intill asp och lönn. Sporer 12 x 8 µm, maginalceller runda 25-30 µm</t>
         </is>
       </c>
       <c r="AD94" t="b">

--- a/artfynd/A 4079-2021.xlsx
+++ b/artfynd/A 4079-2021.xlsx
@@ -11768,10 +11768,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111393293</v>
+        <v>111393271</v>
       </c>
       <c r="B93" t="n">
-        <v>89665</v>
+        <v>84766</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11784,21 +11784,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>73</v>
+        <v>2975</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Bleknande kamskivling</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Amanita lividopallescens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Boud.) Kühner &amp; Romagn.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11808,10 +11808,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>486433.8759830765</v>
+        <v>486378.194073186</v>
       </c>
       <c r="R93" t="n">
-        <v>6565678.258153108</v>
+        <v>6565590.433362438</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>på granlåga</t>
+          <t>intill asp och lönn. Sporer 12 x 8 µm, maginalceller runda 25-30 µm</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11885,10 +11885,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111393271</v>
+        <v>111393293</v>
       </c>
       <c r="B94" t="n">
-        <v>84766</v>
+        <v>89665</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11901,21 +11901,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2975</v>
+        <v>73</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bleknande kamskivling</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Amanita lividopallescens</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Boud.) Kühner &amp; Romagn.</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11925,10 +11925,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>486378.194073186</v>
+        <v>486433.8759830765</v>
       </c>
       <c r="R94" t="n">
-        <v>6565590.433362438</v>
+        <v>6565678.258153108</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>intill asp och lönn. Sporer 12 x 8 µm, maginalceller runda 25-30 µm</t>
+          <t>på granlåga</t>
         </is>
       </c>
       <c r="AD94" t="b">

--- a/artfynd/A 4079-2021.xlsx
+++ b/artfynd/A 4079-2021.xlsx
@@ -12160,10 +12160,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>486374.0780720389</v>
+        <v>486374</v>
       </c>
       <c r="R96" t="n">
-        <v>6565586.353922629</v>
+        <v>6565586</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
